--- a/Team-Data/2014-15/1-8-2014-15.xlsx
+++ b/Team-Data/2014-15/1-8-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,16 +814,16 @@
         <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -774,16 +841,16 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -798,13 +865,13 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -932,10 +999,10 @@
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>8</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
@@ -992,10 +1059,10 @@
         <v>20</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>16</v>
@@ -1123,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
@@ -1135,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>25</v>
@@ -1144,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
@@ -1156,13 +1223,13 @@
         <v>12</v>
       </c>
       <c r="AT4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.368</v>
+        <v>0.351</v>
       </c>
       <c r="H5" t="n">
         <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.31</v>
+        <v>0.311</v>
       </c>
       <c r="O5" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P5" t="n">
         <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T5" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U5" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W5" t="n">
         <v>5.6</v>
@@ -1275,31 +1342,31 @@
         <v>4.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.8</v>
+        <v>-4.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1308,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
@@ -1338,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
         <v>24</v>
@@ -1350,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>3.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>5</v>
@@ -1481,28 +1548,28 @@
         <v>6</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>18</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>19</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1511,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>0.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>
@@ -1678,22 +1745,22 @@
         <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>15</v>
@@ -1717,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.722</v>
+        <v>0.703</v>
       </c>
       <c r="H8" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.476</v>
@@ -1785,7 +1852,7 @@
         <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="N8" t="n">
         <v>0.36</v>
@@ -1794,25 +1861,25 @@
         <v>17.4</v>
       </c>
       <c r="P8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R8" t="n">
         <v>10.9</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
@@ -1827,34 +1894,34 @@
         <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.3</v>
+        <v>109.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -1863,28 +1930,28 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>14</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1905,10 +1972,10 @@
         <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-1.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>18</v>
@@ -2030,13 +2097,13 @@
         <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2060,7 +2127,7 @@
         <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>8</v>
@@ -2072,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
@@ -2090,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -2209,13 +2276,13 @@
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
@@ -2236,7 +2303,7 @@
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2257,7 +2324,7 @@
         <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2421,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2454,7 +2521,7 @@
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -2501,67 +2568,67 @@
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="L12" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.704</v>
+        <v>0.703</v>
       </c>
       <c r="R12" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="U12" t="n">
         <v>20.5</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
         <v>16</v>
@@ -2573,13 +2640,13 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2594,19 +2661,19 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS12" t="n">
         <v>19</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB12" t="n">
         <v>16</v>
       </c>
-      <c r="BB12" t="n">
-        <v>14</v>
-      </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2828,7 @@
         <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>14</v>
@@ -2770,13 +2837,13 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>25</v>
@@ -2791,13 +2858,13 @@
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2812,7 +2879,7 @@
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
@@ -2946,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2955,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -3032,97 +3099,97 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.314</v>
+        <v>0.306</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="J15" t="n">
-        <v>86.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O15" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
         <v>12.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>102</v>
+        <v>101.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3134,34 +3201,34 @@
         <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
         <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV15" t="n">
         <v>4</v>
@@ -3176,13 +3243,13 @@
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA15" t="n">
         <v>20</v>
       </c>
-      <c r="BA15" t="n">
-        <v>21</v>
-      </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -3301,13 +3368,13 @@
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3322,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3331,13 +3398,13 @@
         <v>14</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3346,29 +3413,29 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW16" t="n">
         <v>10</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC16" t="n">
         <v>7</v>
       </c>
-      <c r="BA16" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>8</v>
-      </c>
       <c r="BD16" t="n">
         <v>10</v>
       </c>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417</v>
+        <v>0.429</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J17" t="n">
-        <v>74.09999999999999</v>
+        <v>74</v>
       </c>
       <c r="K17" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L17" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M17" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O17" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q17" t="n">
         <v>0.73</v>
@@ -3441,49 +3508,49 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T17" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="U17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.5</v>
+        <v>-4.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3495,22 +3562,22 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
         <v>11</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>8</v>
       </c>
       <c r="AQ17" t="n">
         <v>25</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
         <v>9</v>
@@ -3543,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -3677,16 +3744,16 @@
         <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3947,7 @@
         <v>26</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -3942,145 +4009,145 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.471</v>
+        <v>0.486</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J20" t="n">
-        <v>84.40000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
         <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O20" t="n">
         <v>16.9</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.752</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>42.9</v>
+        <v>43.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>101.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
         <v>12</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN20" t="n">
         <v>23</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>22</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY20" t="n">
         <v>27</v>
@@ -4089,10 +4156,10 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="n">
-        <v>0.128</v>
+        <v>0.132</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4148,25 +4215,25 @@
         <v>0.442</v>
       </c>
       <c r="L21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M21" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O21" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="P21" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.773</v>
+        <v>0.781</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>28.7</v>
@@ -4178,13 +4245,13 @@
         <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
         <v>3.7</v>
@@ -4193,13 +4260,13 @@
         <v>22.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.5</v>
+        <v>-8.1</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4217,22 +4284,22 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4256,13 +4323,13 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4271,7 +4338,7 @@
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>0.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4393,13 +4460,13 @@
         <v>16</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI22" t="n">
         <v>17</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>18</v>
       </c>
       <c r="AJ22" t="n">
         <v>13</v>
@@ -4408,7 +4475,7 @@
         <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4420,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ22" t="n">
         <v>22</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>30</v>
@@ -4450,10 +4517,10 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0.351</v>
+        <v>0.342</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="N23" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O23" t="n">
         <v>13.5</v>
@@ -4527,73 +4594,73 @@
         <v>18.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>6</v>
@@ -4620,7 +4687,7 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>22</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4939,7 +5006,7 @@
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>13</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>14</v>
@@ -4975,7 +5042,7 @@
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>19</v>
@@ -4990,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
         <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.778</v>
+        <v>0.771</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J26" t="n">
-        <v>87</v>
+        <v>86.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L26" t="n">
         <v>10.2</v>
@@ -5064,31 +5131,31 @@
         <v>27.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S26" t="n">
         <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>46.7</v>
+        <v>46.6</v>
       </c>
       <c r="U26" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5097,25 +5164,25 @@
         <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
         <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,13 +5221,13 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5345,7 +5412,7 @@
         <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -5398,64 +5465,64 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.571</v>
+        <v>0.583</v>
       </c>
       <c r="H28" t="n">
         <v>49.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
       <c r="O28" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
         <v>5.6</v>
@@ -5464,7 +5531,7 @@
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
         <v>20.6</v>
@@ -5473,10 +5540,10 @@
         <v>102.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -5485,7 +5552,7 @@
         <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5494,34 +5561,34 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
         <v>10</v>
@@ -5530,13 +5597,13 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.706</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="J29" t="n">
         <v>85.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L29" t="n">
         <v>9.1</v>
       </c>
       <c r="M29" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O29" t="n">
         <v>20.3</v>
@@ -5619,13 +5686,13 @@
         <v>25.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T29" t="n">
         <v>41.6</v>
@@ -5637,37 +5704,37 @@
         <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z29" t="n">
         <v>21.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>107.7</v>
+        <v>108.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
         <v>9</v>
@@ -5676,10 +5743,10 @@
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5715,10 +5782,10 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>22</v>
@@ -5727,7 +5794,7 @@
         <v>23</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-2.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
         <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5888,13 +5955,13 @@
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6098,7 @@
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH31" t="n">
         <v>14</v>
@@ -6040,7 +6107,7 @@
         <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>3</v>
@@ -6076,13 +6143,13 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6091,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-8-2014-15</t>
+          <t>2015-01-08</t>
         </is>
       </c>
     </row>
